--- a/output/0/tRNA-Pro-AGG-2-2.xlsx
+++ b/output/0/tRNA-Pro-AGG-2-2.xlsx
@@ -12,15 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
   <si>
     <t>chr6</t>
   </si>
   <si>
-    <t>26555436</t>
-  </si>
-  <si>
-    <t>26555459</t>
+    <t>26555509</t>
+  </si>
+  <si>
+    <t>26555532</t>
   </si>
   <si>
     <t>0</t>
@@ -29,7 +29,7 @@
     <t>+</t>
   </si>
   <si>
-    <t>26555456</t>
+    <t>26555529</t>
   </si>
   <si>
     <t>150,150,150</t>
@@ -38,55 +38,28 @@
     <t>255,0,0</t>
   </si>
   <si>
-    <t>CATTTAAAAAAAAAGAAATT</t>
-  </si>
-  <si>
-    <t>TGG</t>
+    <t>TAGGGGTATGATTCTCGCTT</t>
+  </si>
+  <si>
+    <t>AGG</t>
   </si>
   <si>
     <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
   </si>
   <si>
-    <t>3% (21)</t>
-  </si>
-  <si>
-    <t>5% (16)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>66</t>
+    <t>19% (38)</t>
+  </si>
+  <si>
+    <t>67% (53)</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>62</t>
   </si>
   <si>
     <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>26555509</t>
-  </si>
-  <si>
-    <t>26555532</t>
-  </si>
-  <si>
-    <t>26555529</t>
-  </si>
-  <si>
-    <t>TAGGGGTATGATTCTCGCTT</t>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>19% (38)</t>
-  </si>
-  <si>
-    <t>67% (53)</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>62</t>
   </si>
   <si>
     <t>26555510</t>
@@ -284,7 +257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -443,22 +416,22 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="M3" t="s">
         <v>10</v>
       </c>
       <c r="N3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" t="s">
         <v>30</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>32</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>33</v>
       </c>
       <c r="R3" t="s">
         <v>15</v>
@@ -472,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -484,10 +457,10 @@
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -499,10 +472,10 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L4" t="s">
         <v>37</v>
-      </c>
-      <c r="L4" t="s">
-        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>10</v>
@@ -561,22 +534,22 @@
         <v>45</v>
       </c>
       <c r="L5" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
         <v>10</v>
       </c>
       <c r="N5" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="s">
         <v>47</v>
       </c>
-      <c r="O5" t="s">
-        <v>48</v>
-      </c>
-      <c r="P5" t="s">
-        <v>49</v>
-      </c>
       <c r="Q5" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="R5" t="s">
         <v>15</v>
@@ -590,10 +563,10 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -602,10 +575,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -617,25 +590,25 @@
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M6" t="s">
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="O6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R6" t="s">
         <v>15</v>
@@ -649,22 +622,22 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -676,25 +649,25 @@
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L7" t="s">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q7" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="R7" t="s">
         <v>15</v>
@@ -708,22 +681,22 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D8" t="s">
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -735,89 +708,30 @@
         <v>7</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="M8" t="s">
         <v>10</v>
       </c>
       <c r="N8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="Q8" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="R8" t="s">
         <v>15</v>
       </c>
       <c r="S8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" t="s">
-        <v>70</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" t="s">
-        <v>71</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" t="s">
-        <v>46</v>
-      </c>
-      <c r="M9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N9" t="s">
-        <v>73</v>
-      </c>
-      <c r="O9" t="s">
-        <v>39</v>
-      </c>
-      <c r="P9" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>75</v>
-      </c>
-      <c r="R9" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" t="s">
         <v>3</v>
       </c>
     </row>
